--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_33.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_10_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2793913.038978473</v>
+        <v>2791105.337938</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>430763.782371723</v>
+        <v>430763.7823717229</v>
       </c>
     </row>
     <row r="9">
@@ -668,19 +668,19 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>124.2600543520727</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
+        <v>15.21022140383137</v>
+      </c>
+      <c r="H2" t="n">
         <v>263.2420339516666</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>106.270887259382</v>
       </c>
       <c r="V2" t="n">
         <v>263.2420339516666</v>
@@ -735,28 +735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>61.97809761261716</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.2940166796957</v>
+        <v>52.61646269370533</v>
       </c>
       <c r="H3" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>87.69233988828964</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,13 +786,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>170.7637213332854</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>199.9652070090748</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -801,7 +801,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.68702246598919</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>77.14804664098575</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>159.8350691069749</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -908,16 +908,16 @@
         <v>263.2420339516666</v>
       </c>
       <c r="G5" t="n">
-        <v>20.85732126240473</v>
+        <v>15.21022140383137</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>206.9091621893709</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>4.097100052852153</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>144.0576027644702</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -950,13 +950,13 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.3382516189322</v>
       </c>
       <c r="V5" t="n">
-        <v>263.2420339516666</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.2420339516666</v>
+        <v>84.49954166906082</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -975,22 +975,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>59.81778714681457</v>
+        <v>137.2940166796957</v>
       </c>
       <c r="H6" t="n">
-        <v>111.757373777286</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>7.328789249502687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9381254702172</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>159.8350691069748</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>159.8350691069749</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1151,7 +1151,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>51.18158322898583</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>114.3055064074256</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>196.1188569569537</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>86.74508908407137</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1212,19 +1212,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>8.436106212590074</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.0405985760713</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>166.056591206755</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>198.9437542142032</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9214532265578</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,10 +1275,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>169.7280349781414</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>25.1520763809572</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1342,10 +1342,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>226.860501420568</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>90.14658562989025</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417104</v>
       </c>
       <c r="G11" t="n">
         <v>409.8432760127576</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T11" t="n">
         <v>199.1970568374742</v>
@@ -1464,7 +1464,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H12" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>9.434273714503275</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>7.729505493042338</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1540,13 +1540,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I13" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S13" t="n">
         <v>181.338488358459</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T14" t="n">
         <v>199.1970568374742</v>
@@ -1664,7 +1664,7 @@
         <v>250.9088959876463</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H15" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.4539897919539</v>
+        <v>83.5541093828361</v>
       </c>
       <c r="I16" t="n">
-        <v>45.72156936731122</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.338488358459</v>
       </c>
       <c r="T16" t="n">
         <v>217.4819944627618</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T17" t="n">
         <v>199.1970568374742</v>
@@ -1938,7 +1938,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H18" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2008,16 +2008,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>64.44601915223836</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S19" t="n">
         <v>181.338488358459</v>
@@ -2059,7 +2059,7 @@
         <v>286.1854515484204</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>195.2377629147102</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T20" t="n">
         <v>199.1970568374742</v>
@@ -2175,7 +2175,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H21" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2236,13 +2236,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>95.66252631596336</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2254,7 +2254,7 @@
         <v>165.5420528771669</v>
       </c>
       <c r="H22" t="n">
-        <v>131.6267707433221</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S22" t="n">
         <v>181.338488358459</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T23" t="n">
         <v>199.1970568374742</v>
@@ -2412,7 +2412,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H24" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2479,22 +2479,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>81.3725990111929</v>
+        <v>1.749532638427066</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S25" t="n">
         <v>181.338488358459</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T26" t="n">
         <v>199.1970568374742</v>
@@ -2649,7 +2649,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H27" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2716,19 +2716,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>64.75643288577366</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S28" t="n">
         <v>181.338488358459</v>
@@ -2767,13 +2767,13 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1854515484204</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>76.04058667828356</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T29" t="n">
         <v>199.1970568374742</v>
@@ -2886,7 +2886,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H30" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2959,13 +2959,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>64.44601915223838</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5420528771669</v>
+        <v>89.5340822374514</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S31" t="n">
         <v>181.338488358459</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T32" t="n">
         <v>199.1970568374742</v>
@@ -3123,7 +3123,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H33" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>86.27179222793497</v>
+        <v>79.40345404838564</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5420528771669</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S34" t="n">
         <v>181.338488358459</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T35" t="n">
         <v>199.1970568374742</v>
@@ -3360,7 +3360,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H36" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3421,19 +3421,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>64.44601915223838</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>95.66252631596331</v>
       </c>
       <c r="G37" t="n">
         <v>165.5420528771669</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S37" t="n">
         <v>181.338488358459</v>
@@ -3551,13 +3551,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T38" t="n">
         <v>199.1970568374742</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9088959876443</v>
+        <v>250.9088959876463</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3597,7 +3597,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H39" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3661,16 +3661,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>91.23885045891228</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5420528771669</v>
@@ -3679,7 +3679,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S40" t="n">
         <v>181.338488358459</v>
@@ -3715,7 +3715,7 @@
         <v>217.4819944627618</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1854515484204</v>
+        <v>198.3420844981783</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T41" t="n">
-        <v>199.1970568374742</v>
+        <v>199.1970568374736</v>
       </c>
       <c r="U41" t="n">
         <v>250.9088959876463</v>
@@ -3834,7 +3834,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H42" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>9.434273714503275</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I43" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S43" t="n">
         <v>181.338488358459</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>21.20721658534494</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -3989,7 +3989,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>409.8432760127566</v>
+        <v>409.8432760127576</v>
       </c>
       <c r="H44" t="n">
         <v>283.5630920045443</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>84.61259060081962</v>
+        <v>84.61259060081963</v>
       </c>
       <c r="T44" t="n">
         <v>199.1970568374742</v>
@@ -4071,7 +4071,7 @@
         <v>134.4224477376697</v>
       </c>
       <c r="H45" t="n">
-        <v>84.02406320561455</v>
+        <v>84.02406320561457</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4141,13 +4141,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>64.44601915223838</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5420528771669</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>67.18075159108355</v>
+        <v>67.18075159108356</v>
       </c>
       <c r="S46" t="n">
         <v>181.338488358459</v>
@@ -4201,7 +4201,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>156.7177147119996</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4304,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="C2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="D2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="E2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="F2" t="n">
-        <v>291.098892013627</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="G2" t="n">
-        <v>25.19784761800419</v>
+        <v>286.9604071117561</v>
       </c>
       <c r="H2" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I2" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J2" t="n">
         <v>21.05936271613333</v>
@@ -4361,19 +4361,19 @@
         <v>682.5151428254849</v>
       </c>
       <c r="U2" t="n">
-        <v>682.5151428254849</v>
+        <v>575.1708122604525</v>
       </c>
       <c r="V2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="W2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="X2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
       <c r="Y2" t="n">
-        <v>416.6140984298621</v>
+        <v>309.2697678648296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,49 +4383,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>990.3639968040228</v>
+        <v>74.2073048309872</v>
       </c>
       <c r="C3" t="n">
-        <v>815.9109675228958</v>
+        <v>74.2073048309872</v>
       </c>
       <c r="D3" t="n">
-        <v>666.9765578616446</v>
+        <v>74.2073048309872</v>
       </c>
       <c r="E3" t="n">
-        <v>507.7391028561891</v>
+        <v>74.2073048309872</v>
       </c>
       <c r="F3" t="n">
-        <v>361.204544883074</v>
+        <v>74.2073048309872</v>
       </c>
       <c r="G3" t="n">
-        <v>222.5237199540885</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H3" t="n">
-        <v>109.6374838154158</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I3" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="J3" t="n">
-        <v>21.05936271613333</v>
+        <v>24.9501803568321</v>
       </c>
       <c r="K3" t="n">
-        <v>154.3302328992135</v>
+        <v>158.2210505399123</v>
       </c>
       <c r="L3" t="n">
-        <v>195.6857796103268</v>
+        <v>271.3358444898745</v>
       </c>
       <c r="M3" t="n">
-        <v>456.2953932224767</v>
+        <v>531.9454581020244</v>
       </c>
       <c r="N3" t="n">
-        <v>716.9050068346266</v>
+        <v>792.5550717141743</v>
       </c>
       <c r="O3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="P3" t="n">
-        <v>977.3180709271187</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q3" t="n">
         <v>1052.968135806666</v>
@@ -4434,25 +4434,25 @@
         <v>1052.968135806666</v>
       </c>
       <c r="S3" t="n">
-        <v>1052.968135806666</v>
+        <v>880.4795283993074</v>
       </c>
       <c r="T3" t="n">
-        <v>1052.968135806666</v>
+        <v>678.4944708143832</v>
       </c>
       <c r="U3" t="n">
-        <v>1052.968135806666</v>
+        <v>450.2741420565881</v>
       </c>
       <c r="V3" t="n">
-        <v>1052.968135806666</v>
+        <v>450.2741420565881</v>
       </c>
       <c r="W3" t="n">
-        <v>1052.968135806666</v>
+        <v>450.2741420565881</v>
       </c>
       <c r="X3" t="n">
-        <v>1052.968135806666</v>
+        <v>242.4226418510552</v>
       </c>
       <c r="Y3" t="n">
-        <v>1052.968135806666</v>
+        <v>242.4226418510552</v>
       </c>
     </row>
     <row r="4">
@@ -4507,16 +4507,16 @@
         <v>182.5089274706535</v>
       </c>
       <c r="Q4" t="n">
-        <v>98.98668255551287</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="R4" t="n">
-        <v>98.98668255551287</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="S4" t="n">
-        <v>98.98668255551287</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="T4" t="n">
-        <v>21.05936271613333</v>
+        <v>182.5089274706535</v>
       </c>
       <c r="U4" t="n">
         <v>21.05936271613333</v>
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>521.1660470154206</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="C5" t="n">
-        <v>521.1660470154206</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="D5" t="n">
-        <v>521.1660470154206</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="E5" t="n">
-        <v>521.1660470154206</v>
+        <v>302.3242671156262</v>
       </c>
       <c r="F5" t="n">
-        <v>255.2650026197978</v>
+        <v>36.42322272000341</v>
       </c>
       <c r="G5" t="n">
-        <v>234.1970013446415</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H5" t="n">
-        <v>234.1970013446415</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="I5" t="n">
-        <v>25.19784761800419</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="J5" t="n">
         <v>21.05936271613333</v>
       </c>
       <c r="K5" t="n">
-        <v>135.7250809573682</v>
+        <v>135.7250809573683</v>
       </c>
       <c r="L5" t="n">
-        <v>330.2546714142361</v>
+        <v>330.2546714142362</v>
       </c>
       <c r="M5" t="n">
         <v>563.3128681098024</v>
       </c>
       <c r="N5" t="n">
-        <v>785.5101925369329</v>
+        <v>785.5101925369328</v>
       </c>
       <c r="O5" t="n">
-        <v>950.137187388514</v>
+        <v>950.1371873885138</v>
       </c>
       <c r="P5" t="n">
-        <v>1052.968135806667</v>
+        <v>1052.968135806666</v>
       </c>
       <c r="Q5" t="n">
         <v>1052.968135806666</v>
       </c>
       <c r="R5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="S5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="T5" t="n">
-        <v>1052.968135806666</v>
+        <v>907.4554057415451</v>
       </c>
       <c r="U5" t="n">
-        <v>1052.968135806666</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="V5" t="n">
-        <v>787.0670914110435</v>
+        <v>653.5783839042398</v>
       </c>
       <c r="W5" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112491</v>
       </c>
       <c r="X5" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112491</v>
       </c>
       <c r="Y5" t="n">
-        <v>521.1660470154206</v>
+        <v>568.2253115112491</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>676.9925000216444</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="C6" t="n">
-        <v>502.5394707405175</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="D6" t="n">
-        <v>353.6050610792662</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="E6" t="n">
-        <v>194.3676060738107</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="F6" t="n">
-        <v>194.3676060738107</v>
+        <v>159.7401876451189</v>
       </c>
       <c r="G6" t="n">
-        <v>133.9455988548061</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="H6" t="n">
         <v>21.05936271613333</v>
@@ -4644,25 +4644,25 @@
         <v>21.05936271613333</v>
       </c>
       <c r="J6" t="n">
-        <v>21.05936271613333</v>
+        <v>24.95018035683208</v>
       </c>
       <c r="K6" t="n">
-        <v>21.05936271613333</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="L6" t="n">
-        <v>261.6628906109958</v>
+        <v>158.2210505399122</v>
       </c>
       <c r="M6" t="n">
-        <v>522.2725042231457</v>
+        <v>418.8306641520621</v>
       </c>
       <c r="N6" t="n">
-        <v>782.8821178352956</v>
+        <v>679.4402777642121</v>
       </c>
       <c r="O6" t="n">
-        <v>1043.295181927788</v>
+        <v>785.3166962490202</v>
       </c>
       <c r="P6" t="n">
-        <v>1052.968135806666</v>
+        <v>977.3180709271187</v>
       </c>
       <c r="Q6" t="n">
         <v>1052.968135806666</v>
@@ -4674,22 +4674,22 @@
         <v>1052.968135806666</v>
       </c>
       <c r="T6" t="n">
-        <v>1052.968135806666</v>
+        <v>1045.565318382926</v>
       </c>
       <c r="U6" t="n">
-        <v>1052.968135806666</v>
+        <v>817.3449896251311</v>
       </c>
       <c r="V6" t="n">
-        <v>1052.968135806666</v>
+        <v>582.1928813933885</v>
       </c>
       <c r="W6" t="n">
-        <v>1052.968135806666</v>
+        <v>327.9555246651869</v>
       </c>
       <c r="X6" t="n">
-        <v>1052.968135806666</v>
+        <v>327.9555246651869</v>
       </c>
       <c r="Y6" t="n">
-        <v>845.2078370417125</v>
+        <v>327.9555246651869</v>
       </c>
     </row>
     <row r="7">
@@ -4729,7 +4729,7 @@
         <v>21.05936271613333</v>
       </c>
       <c r="L7" t="n">
-        <v>54.48163939360296</v>
+        <v>54.48163939360295</v>
       </c>
       <c r="M7" t="n">
         <v>100.1098670955239</v>
@@ -4741,25 +4741,25 @@
         <v>180.2341645716483</v>
       </c>
       <c r="P7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="Q7" t="n">
-        <v>182.5089274706535</v>
+        <v>182.5089274706534</v>
       </c>
       <c r="R7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="S7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="T7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="U7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="V7" t="n">
-        <v>182.5089274706535</v>
+        <v>21.05936271613333</v>
       </c>
       <c r="W7" t="n">
         <v>21.05936271613333</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>832.6834957886078</v>
+        <v>808.507480861934</v>
       </c>
       <c r="C8" t="n">
-        <v>463.7209788481961</v>
+        <v>439.5449639215224</v>
       </c>
       <c r="D8" t="n">
-        <v>105.4552802414456</v>
+        <v>439.5449639215224</v>
       </c>
       <c r="E8" t="n">
-        <v>105.4552802414456</v>
+        <v>53.75671132327814</v>
       </c>
       <c r="F8" t="n">
-        <v>98.50977949224215</v>
+        <v>46.81121057407467</v>
       </c>
       <c r="G8" t="n">
-        <v>83.6243406386775</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="H8" t="n">
-        <v>83.6243406386775</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="I8" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="J8" t="n">
-        <v>67.66699237151738</v>
+        <v>67.66699237151749</v>
       </c>
       <c r="K8" t="n">
-        <v>241.9786214193927</v>
+        <v>241.978621419393</v>
       </c>
       <c r="L8" t="n">
-        <v>510.5042384841153</v>
+        <v>510.5042384841159</v>
       </c>
       <c r="M8" t="n">
-        <v>825.8972722888587</v>
+        <v>825.8972722888595</v>
       </c>
       <c r="N8" t="n">
-        <v>1131.761697568015</v>
+        <v>1131.761697568016</v>
       </c>
       <c r="O8" t="n">
-        <v>1375.393163234508</v>
+        <v>1375.393163234509</v>
       </c>
       <c r="P8" t="n">
-        <v>1545.652599660156</v>
+        <v>1545.652599660157</v>
       </c>
       <c r="Q8" t="n">
-        <v>1596.288586025499</v>
+        <v>1596.288586025501</v>
       </c>
       <c r="R8" t="n">
-        <v>1596.288586025499</v>
+        <v>1480.828478543253</v>
       </c>
       <c r="S8" t="n">
-        <v>1596.288586025499</v>
+        <v>1282.728623031178</v>
       </c>
       <c r="T8" t="n">
-        <v>1596.288586025499</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="U8" t="n">
-        <v>1596.288586025499</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="V8" t="n">
-        <v>1596.288586025499</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="W8" t="n">
-        <v>1596.288586025499</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="X8" t="n">
-        <v>1222.82282776442</v>
+        <v>1195.107320926056</v>
       </c>
       <c r="Y8" t="n">
-        <v>832.6834957886078</v>
+        <v>1195.107320926056</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>523.0719850750004</v>
+        <v>170.3506187670467</v>
       </c>
       <c r="C9" t="n">
-        <v>348.6189557938734</v>
+        <v>170.3506187670467</v>
       </c>
       <c r="D9" t="n">
-        <v>199.6845461326221</v>
+        <v>170.3506187670467</v>
       </c>
       <c r="E9" t="n">
-        <v>40.44709112716663</v>
+        <v>170.3506187670467</v>
       </c>
       <c r="F9" t="n">
-        <v>31.92577172050999</v>
+        <v>170.3506187670467</v>
       </c>
       <c r="G9" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="H9" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="I9" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="J9" t="n">
-        <v>59.51961820537316</v>
+        <v>59.51961820537326</v>
       </c>
       <c r="K9" t="n">
-        <v>233.302740046018</v>
+        <v>233.3027400460182</v>
       </c>
       <c r="L9" t="n">
-        <v>528.3799898168545</v>
+        <v>528.379989816855</v>
       </c>
       <c r="M9" t="n">
-        <v>923.4614148581657</v>
+        <v>533.5180518372224</v>
       </c>
       <c r="N9" t="n">
-        <v>928.5994768785326</v>
+        <v>928.5994768785339</v>
       </c>
       <c r="O9" t="n">
-        <v>1248.704208289598</v>
+        <v>1248.704208289599</v>
       </c>
       <c r="P9" t="n">
-        <v>1488.613408501202</v>
+        <v>1488.613408501203</v>
       </c>
       <c r="Q9" t="n">
-        <v>1596.288586025499</v>
+        <v>1596.288586025501</v>
       </c>
       <c r="R9" t="n">
-        <v>1596.288586025499</v>
+        <v>1596.288586025501</v>
       </c>
       <c r="S9" t="n">
-        <v>1596.288586025499</v>
+        <v>1428.554655513627</v>
       </c>
       <c r="T9" t="n">
-        <v>1596.288586025499</v>
+        <v>1227.601368428574</v>
       </c>
       <c r="U9" t="n">
-        <v>1596.288586025499</v>
+        <v>999.3978803209394</v>
       </c>
       <c r="V9" t="n">
-        <v>1361.136477793757</v>
+        <v>764.2457720891966</v>
       </c>
       <c r="W9" t="n">
-        <v>1106.899121065555</v>
+        <v>510.008415360995</v>
       </c>
       <c r="X9" t="n">
-        <v>899.0476208600223</v>
+        <v>338.5659557871148</v>
       </c>
       <c r="Y9" t="n">
-        <v>691.2873220950685</v>
+        <v>338.5659557871148</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="C10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="D10" t="n">
-        <v>326.7288128008134</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="E10" t="n">
-        <v>178.8157192184204</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="F10" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="G10" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="H10" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="I10" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="J10" t="n">
-        <v>31.92577172050999</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="K10" t="n">
-        <v>39.08908224095555</v>
+        <v>39.08908224095566</v>
       </c>
       <c r="L10" t="n">
-        <v>103.7820880685942</v>
+        <v>103.7820880685944</v>
       </c>
       <c r="M10" t="n">
-        <v>182.3809151796117</v>
+        <v>182.380915179612</v>
       </c>
       <c r="N10" t="n">
-        <v>264.5454542807988</v>
+        <v>264.5454542807993</v>
       </c>
       <c r="O10" t="n">
-        <v>324.4214093422729</v>
+        <v>324.4214093422735</v>
       </c>
       <c r="P10" t="n">
-        <v>352.1349505593561</v>
+        <v>352.1349505593568</v>
       </c>
       <c r="Q10" t="n">
-        <v>352.1349505593561</v>
+        <v>352.1349505593568</v>
       </c>
       <c r="R10" t="n">
-        <v>352.1349505593561</v>
+        <v>352.1349505593568</v>
       </c>
       <c r="S10" t="n">
-        <v>352.1349505593561</v>
+        <v>352.1349505593568</v>
       </c>
       <c r="T10" t="n">
-        <v>352.1349505593561</v>
+        <v>122.9829289224194</v>
       </c>
       <c r="U10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="V10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="W10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="X10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
       <c r="Y10" t="n">
-        <v>352.1349505593561</v>
+        <v>31.92577172051002</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C11" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D11" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E11" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F11" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G11" t="n">
         <v>380.2757138127629</v>
@@ -5039,19 +5039,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J11" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K11" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L11" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M11" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N11" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O11" t="n">
         <v>3654.445485610258</v>
@@ -5066,25 +5066,25 @@
         <v>4692.417407580351</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T11" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U11" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V11" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W11" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X11" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5115,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I12" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J12" t="n">
-        <v>241.496329903453</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="K12" t="n">
-        <v>572.0050724668117</v>
+        <v>238.7141959544605</v>
       </c>
       <c r="L12" t="n">
-        <v>1062.737405310563</v>
+        <v>729.4465287982117</v>
       </c>
       <c r="M12" t="n">
-        <v>1654.755759562691</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N12" t="n">
-        <v>1903.667562284443</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.667562284443</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P12" t="n">
-        <v>2323.251080710519</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R12" t="n">
         <v>2553.812354695766</v>
@@ -5176,16 +5176,16 @@
         <v>495.0957149476001</v>
       </c>
       <c r="C13" t="n">
-        <v>485.5661455390109</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D13" t="n">
-        <v>485.5661455390109</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="E13" t="n">
-        <v>485.5661455390109</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="F13" t="n">
-        <v>485.5661455390109</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="G13" t="n">
         <v>318.3519507135898</v>
@@ -5252,10 +5252,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C14" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D14" t="n">
         <v>1591.032978284208</v>
@@ -5264,10 +5264,10 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F14" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G14" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H14" t="n">
         <v>93.84834815160703</v>
@@ -5276,16 +5276,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K14" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L14" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M14" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N14" t="n">
         <v>2971.58344915112</v>
@@ -5312,16 +5312,16 @@
         <v>4152.297666746068</v>
       </c>
       <c r="V14" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W14" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X14" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="15">
@@ -5352,31 +5352,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I15" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J15" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K15" t="n">
-        <v>93.84834815160703</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L15" t="n">
-        <v>584.5806809953584</v>
+        <v>929.9301936362499</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.599035247486</v>
+        <v>929.9301936362499</v>
       </c>
       <c r="N15" t="n">
-        <v>1798.694998646823</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O15" t="n">
-        <v>2345.571473647017</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R15" t="n">
         <v>2553.812354695766</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>746.1252502501684</v>
+        <v>495.0957149476001</v>
       </c>
       <c r="C16" t="n">
-        <v>746.1252502501684</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="D16" t="n">
-        <v>596.0086108378326</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E16" t="n">
-        <v>596.0086108378326</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F16" t="n">
-        <v>449.1186633399223</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="G16" t="n">
-        <v>281.9044685145011</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="H16" t="n">
-        <v>140.0317515529315</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I16" t="n">
         <v>93.84834815160703</v>
@@ -5458,28 +5458,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R16" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S16" t="n">
-        <v>2429.412499335695</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T16" t="n">
-        <v>2209.733717050076</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U16" t="n">
-        <v>1920.657503364803</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V16" t="n">
-        <v>1665.973015158916</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W16" t="n">
-        <v>1376.555845121956</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X16" t="n">
-        <v>1148.566294223938</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y16" t="n">
-        <v>927.7737150804081</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="17">
@@ -5489,49 +5489,49 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D17" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E17" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F17" t="n">
-        <v>794.2588208963565</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G17" t="n">
-        <v>380.2757138127629</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H17" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160599</v>
       </c>
       <c r="I17" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J17" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K17" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L17" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M17" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N17" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O17" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P17" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q17" t="n">
         <v>4566.333620403613</v>
@@ -5592,28 +5592,28 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J18" t="n">
-        <v>93.84834815160703</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K18" t="n">
-        <v>93.84834815160703</v>
+        <v>572.0050724668117</v>
       </c>
       <c r="L18" t="n">
-        <v>584.5806809953584</v>
+        <v>1062.737405310563</v>
       </c>
       <c r="M18" t="n">
-        <v>1176.599035247486</v>
+        <v>1654.75575956269</v>
       </c>
       <c r="N18" t="n">
-        <v>1798.694998646823</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.571473647017</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R18" t="n">
         <v>2553.812354695766</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>495.0957149476001</v>
+        <v>552.5703416234767</v>
       </c>
       <c r="C19" t="n">
-        <v>326.1595320196932</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="D19" t="n">
-        <v>326.1595320196932</v>
+        <v>383.6341586955697</v>
       </c>
       <c r="E19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="F19" t="n">
-        <v>326.1595320196932</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G19" t="n">
-        <v>158.945337194272</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H19" t="n">
         <v>93.84834815160703</v>
@@ -5707,16 +5707,16 @@
         <v>1669.627968062235</v>
       </c>
       <c r="V19" t="n">
-        <v>1414.943479856348</v>
+        <v>1472.418106532225</v>
       </c>
       <c r="W19" t="n">
-        <v>1125.526309819387</v>
+        <v>1183.000936495264</v>
       </c>
       <c r="X19" t="n">
-        <v>897.5367589213699</v>
+        <v>955.0113855972465</v>
       </c>
       <c r="Y19" t="n">
-        <v>676.7441797778398</v>
+        <v>734.2188064537164</v>
       </c>
     </row>
     <row r="20">
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C20" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D20" t="n">
-        <v>1591.032978284208</v>
+        <v>1591.032978284207</v>
       </c>
       <c r="E20" t="n">
-        <v>1205.244725685964</v>
+        <v>1205.244725685963</v>
       </c>
       <c r="F20" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963555</v>
       </c>
       <c r="G20" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127619</v>
       </c>
       <c r="H20" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160599</v>
       </c>
       <c r="I20" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J20" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K20" t="n">
-        <v>893.7741287892015</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L20" t="n">
         <v>1513.293909294976</v>
@@ -5783,19 +5783,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U20" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V20" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W20" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X20" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="21">
@@ -5832,19 +5832,19 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K21" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L21" t="n">
-        <v>584.5806809953584</v>
+        <v>526.9340838249515</v>
       </c>
       <c r="M21" t="n">
-        <v>699.3689196510026</v>
+        <v>1118.952438077079</v>
       </c>
       <c r="N21" t="n">
-        <v>1321.464883050339</v>
+        <v>1741.048401476415</v>
       </c>
       <c r="O21" t="n">
-        <v>1868.341358050533</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="P21" t="n">
         <v>2287.924876476609</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>562.9550599890988</v>
+        <v>580.1153653172707</v>
       </c>
       <c r="C22" t="n">
-        <v>394.0188770611919</v>
+        <v>411.1791823893639</v>
       </c>
       <c r="D22" t="n">
-        <v>394.0188770611919</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="E22" t="n">
-        <v>394.0188770611919</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="F22" t="n">
-        <v>394.0188770611919</v>
+        <v>261.0625429770282</v>
       </c>
       <c r="G22" t="n">
-        <v>226.8046822357708</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H22" t="n">
         <v>93.84834815160703</v>
@@ -5932,28 +5932,28 @@
         <v>2429.412499335695</v>
       </c>
       <c r="R22" t="n">
-        <v>2429.412499335695</v>
+        <v>2361.553154294196</v>
       </c>
       <c r="S22" t="n">
-        <v>2246.242309074625</v>
+        <v>2178.382964033126</v>
       </c>
       <c r="T22" t="n">
-        <v>2026.563526789007</v>
+        <v>1958.704181747508</v>
       </c>
       <c r="U22" t="n">
-        <v>1737.487313103734</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V22" t="n">
-        <v>1482.802824897847</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W22" t="n">
-        <v>1193.385654860886</v>
+        <v>1125.526309819387</v>
       </c>
       <c r="X22" t="n">
-        <v>965.3961039628687</v>
+        <v>897.5367589213699</v>
       </c>
       <c r="Y22" t="n">
-        <v>744.6035248193385</v>
+        <v>676.7441797778398</v>
       </c>
     </row>
     <row r="23">
@@ -5963,10 +5963,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C23" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D23" t="n">
         <v>1591.032978284208</v>
@@ -5975,64 +5975,64 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F23" t="n">
-        <v>794.2588208963564</v>
+        <v>794.2588208963562</v>
       </c>
       <c r="G23" t="n">
-        <v>380.275713812763</v>
+        <v>380.2757138127627</v>
       </c>
       <c r="H23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I23" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J23" t="n">
-        <v>373.3442236507201</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K23" t="n">
-        <v>893.7741287892025</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L23" t="n">
-        <v>1513.293909294977</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M23" t="n">
-        <v>2234.298471234015</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N23" t="n">
-        <v>2971.583449151121</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O23" t="n">
-        <v>3654.445485610259</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P23" t="n">
-        <v>4202.751434297607</v>
+        <v>4202.751434297606</v>
       </c>
       <c r="Q23" t="n">
-        <v>4566.333620403614</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R23" t="n">
-        <v>4692.417407580352</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.950144347201</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T23" t="n">
         <v>4405.740996026519</v>
       </c>
       <c r="U23" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V23" t="n">
-        <v>3821.234779402498</v>
+        <v>3821.234779402497</v>
       </c>
       <c r="W23" t="n">
-        <v>3468.466124132384</v>
+        <v>3468.466124132383</v>
       </c>
       <c r="X23" t="n">
-        <v>3095.000365871304</v>
+        <v>3095.000365871303</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.861033895492</v>
+        <v>2704.861033895491</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K24" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="L24" t="n">
-        <v>584.5806809953584</v>
+        <v>142.6767696327857</v>
       </c>
       <c r="M24" t="n">
-        <v>699.3689196510026</v>
+        <v>734.6951238849133</v>
       </c>
       <c r="N24" t="n">
-        <v>1321.464883050339</v>
+        <v>1356.791087284249</v>
       </c>
       <c r="O24" t="n">
-        <v>1868.341358050533</v>
+        <v>1903.667562284444</v>
       </c>
       <c r="P24" t="n">
-        <v>2287.924876476609</v>
+        <v>2323.25108071052</v>
       </c>
       <c r="Q24" t="n">
-        <v>2518.486150461856</v>
+        <v>2553.812354695766</v>
       </c>
       <c r="R24" t="n">
         <v>2553.812354695766</v>
@@ -6127,28 +6127,28 @@
         <v>326.1595320196932</v>
       </c>
       <c r="D25" t="n">
-        <v>176.0428926073575</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="E25" t="n">
-        <v>176.0428926073575</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="F25" t="n">
-        <v>176.0428926073575</v>
+        <v>178.2464384373001</v>
       </c>
       <c r="G25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="H25" t="n">
-        <v>93.84834815160704</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I25" t="n">
-        <v>93.84834815160704</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J25" t="n">
-        <v>172.830471041161</v>
+        <v>172.8304710411609</v>
       </c>
       <c r="K25" t="n">
-        <v>432.4591980117247</v>
+        <v>432.4591980117246</v>
       </c>
       <c r="L25" t="n">
         <v>820.2210160948589</v>
@@ -6218,34 +6218,34 @@
         <v>380.2757138127627</v>
       </c>
       <c r="H26" t="n">
-        <v>93.84834815160703</v>
+        <v>93.84834815160684</v>
       </c>
       <c r="I26" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J26" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K26" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L26" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M26" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N26" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O26" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P26" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q26" t="n">
-        <v>4566.333620403613</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R26" t="n">
         <v>4692.417407580351</v>
@@ -6303,16 +6303,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J27" t="n">
-        <v>93.84834815160703</v>
+        <v>208.6365868072519</v>
       </c>
       <c r="K27" t="n">
-        <v>93.84834815160703</v>
+        <v>208.6365868072519</v>
       </c>
       <c r="L27" t="n">
-        <v>107.3505653988748</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="M27" t="n">
-        <v>699.3689196510026</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N27" t="n">
         <v>1321.464883050339</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>784.1719286328732</v>
+        <v>707.7042115721531</v>
       </c>
       <c r="C28" t="n">
-        <v>615.2357457049663</v>
+        <v>538.7680286442462</v>
       </c>
       <c r="D28" t="n">
-        <v>549.8252074365081</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E28" t="n">
-        <v>549.8252074365081</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F28" t="n">
-        <v>402.9352599385978</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G28" t="n">
-        <v>235.7210651131766</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H28" t="n">
         <v>93.84834815160703</v>
@@ -6415,19 +6415,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U28" t="n">
-        <v>1958.704181747508</v>
+        <v>1669.627968062235</v>
       </c>
       <c r="V28" t="n">
-        <v>1704.019693541621</v>
+        <v>1414.943479856348</v>
       </c>
       <c r="W28" t="n">
-        <v>1414.60252350466</v>
+        <v>1338.13480644394</v>
       </c>
       <c r="X28" t="n">
-        <v>1186.612972606643</v>
+        <v>1110.145255545923</v>
       </c>
       <c r="Y28" t="n">
-        <v>965.820393463113</v>
+        <v>889.3526764023928</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>794.2588208963566</v>
       </c>
       <c r="G29" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H29" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I29" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J29" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L29" t="n">
         <v>1513.293909294976</v>
@@ -6543,25 +6543,25 @@
         <v>93.84834815160703</v>
       </c>
       <c r="K30" t="n">
-        <v>93.84834815160703</v>
+        <v>424.3570907149658</v>
       </c>
       <c r="L30" t="n">
-        <v>373.2380436180322</v>
+        <v>915.089423558717</v>
       </c>
       <c r="M30" t="n">
-        <v>965.25639787016</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="N30" t="n">
-        <v>1587.352361269496</v>
+        <v>1507.107777810845</v>
       </c>
       <c r="O30" t="n">
-        <v>2134.22883626969</v>
+        <v>2053.984252811039</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R30" t="n">
         <v>2553.812354695766</v>
@@ -6607,10 +6607,10 @@
         <v>326.1595320196932</v>
       </c>
       <c r="F31" t="n">
-        <v>261.0625429770282</v>
+        <v>326.1595320196932</v>
       </c>
       <c r="G31" t="n">
-        <v>93.84834815160703</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H31" t="n">
         <v>93.84834815160703</v>
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2318.26119383137</v>
+        <v>2318.261193831369</v>
       </c>
       <c r="C32" t="n">
-        <v>1949.298676890959</v>
+        <v>1949.298676890958</v>
       </c>
       <c r="D32" t="n">
         <v>1591.032978284208</v>
@@ -6686,43 +6686,43 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F32" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G32" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H32" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I32" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J32" t="n">
-        <v>424.1437450015187</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K32" t="n">
-        <v>893.7741287892006</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L32" t="n">
-        <v>1513.293909294975</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M32" t="n">
-        <v>2234.298471234013</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N32" t="n">
-        <v>2971.583449151119</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O32" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P32" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q32" t="n">
-        <v>4566.333620403612</v>
+        <v>4515.534099052813</v>
       </c>
       <c r="R32" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S32" t="n">
         <v>4606.9501443472</v>
@@ -6771,34 +6771,34 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J33" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="K33" t="n">
         <v>424.3570907149658</v>
       </c>
       <c r="L33" t="n">
-        <v>915.0894235587172</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="M33" t="n">
-        <v>1507.107777810845</v>
+        <v>699.3689196510031</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.203741210181</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.812354695766</v>
+        <v>1868.341358050533</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.812354695766</v>
+        <v>2287.924876476609</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R33" t="n">
         <v>2553.812354695766</v>
@@ -6832,28 +6832,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>495.0957149476001</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="C34" t="n">
-        <v>495.0957149476001</v>
+        <v>715.8882940911302</v>
       </c>
       <c r="D34" t="n">
-        <v>495.0957149476001</v>
+        <v>565.7716546787944</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9524904749385</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0625429770282</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G34" t="n">
-        <v>93.84834815160701</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H34" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I34" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J34" t="n">
         <v>172.8304710411609</v>
@@ -6901,7 +6901,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y34" t="n">
-        <v>676.7441797778398</v>
+        <v>897.5367589213699</v>
       </c>
     </row>
     <row r="35">
@@ -6911,55 +6911,55 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C35" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D35" t="n">
         <v>1591.032978284208</v>
       </c>
       <c r="E35" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F35" t="n">
-        <v>794.2588208963559</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G35" t="n">
-        <v>380.2757138127628</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I35" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J35" t="n">
-        <v>424.1437450015187</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K35" t="n">
-        <v>893.7741287892006</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L35" t="n">
-        <v>1513.293909294975</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M35" t="n">
-        <v>2234.298471234013</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N35" t="n">
-        <v>2971.583449151119</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O35" t="n">
-        <v>3654.445485610257</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P35" t="n">
-        <v>4202.751434297606</v>
+        <v>4151.951912946806</v>
       </c>
       <c r="Q35" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R35" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S35" t="n">
         <v>4606.9501443472</v>
@@ -6974,13 +6974,13 @@
         <v>3821.234779402497</v>
       </c>
       <c r="W35" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X35" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="36">
@@ -7008,31 +7008,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I36" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J36" t="n">
-        <v>107.3505653988748</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="K36" t="n">
-        <v>107.3505653988748</v>
+        <v>241.4963299034529</v>
       </c>
       <c r="L36" t="n">
-        <v>107.3505653988748</v>
+        <v>732.2286627472042</v>
       </c>
       <c r="M36" t="n">
-        <v>699.3689196510026</v>
+        <v>1324.247016999332</v>
       </c>
       <c r="N36" t="n">
-        <v>1321.464883050339</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="O36" t="n">
-        <v>1868.341358050533</v>
+        <v>1946.342980398668</v>
       </c>
       <c r="P36" t="n">
-        <v>2287.924876476609</v>
+        <v>2365.926498824744</v>
       </c>
       <c r="Q36" t="n">
         <v>2518.486150461856</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>495.0957149476001</v>
+        <v>676.7441797778398</v>
       </c>
       <c r="C37" t="n">
-        <v>326.1595320196932</v>
+        <v>507.8079968499329</v>
       </c>
       <c r="D37" t="n">
-        <v>261.0625429770282</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="E37" t="n">
-        <v>261.0625429770282</v>
+        <v>357.6913574375972</v>
       </c>
       <c r="F37" t="n">
         <v>261.0625429770282</v>
       </c>
       <c r="G37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="H37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I37" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J37" t="n">
         <v>172.8304710411609</v>
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2318.261193831371</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C38" t="n">
         <v>1949.298676890959</v>
@@ -7166,49 +7166,49 @@
         <v>380.2757138127629</v>
       </c>
       <c r="H38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I38" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J38" t="n">
-        <v>424.1437450015187</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K38" t="n">
-        <v>893.7741287892006</v>
+        <v>893.7741287892018</v>
       </c>
       <c r="L38" t="n">
-        <v>1513.293909294975</v>
+        <v>1513.293909294976</v>
       </c>
       <c r="M38" t="n">
-        <v>2234.298471234013</v>
+        <v>2234.298471234014</v>
       </c>
       <c r="N38" t="n">
-        <v>2971.583449151119</v>
+        <v>2971.58344915112</v>
       </c>
       <c r="O38" t="n">
-        <v>3654.445485610257</v>
+        <v>3654.445485610258</v>
       </c>
       <c r="P38" t="n">
         <v>4202.751434297606</v>
       </c>
       <c r="Q38" t="n">
-        <v>4566.333620403612</v>
+        <v>4566.333620403613</v>
       </c>
       <c r="R38" t="n">
-        <v>4692.41740758035</v>
+        <v>4692.417407580351</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.950144347199</v>
+        <v>4606.9501443472</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.740996026518</v>
+        <v>4405.740996026519</v>
       </c>
       <c r="U38" t="n">
-        <v>4152.297666746069</v>
+        <v>4152.297666746068</v>
       </c>
       <c r="V38" t="n">
-        <v>3821.234779402499</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W38" t="n">
         <v>3468.466124132384</v>
@@ -7217,7 +7217,7 @@
         <v>3095.000365871304</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.861033895493</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>178.7211392683894</v>
       </c>
       <c r="H39" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I39" t="n">
-        <v>93.84834815160701</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J39" t="n">
-        <v>93.84834815160701</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K39" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L39" t="n">
-        <v>424.3570907149658</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="M39" t="n">
-        <v>699.3689196510026</v>
+        <v>1165.062459293462</v>
       </c>
       <c r="N39" t="n">
-        <v>1321.464883050339</v>
+        <v>1787.158422692798</v>
       </c>
       <c r="O39" t="n">
-        <v>1868.341358050533</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P39" t="n">
-        <v>2287.924876476609</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q39" t="n">
         <v>2518.486150461856</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>495.0957149476001</v>
+        <v>804.6189678792535</v>
       </c>
       <c r="C40" t="n">
-        <v>495.0957149476001</v>
+        <v>635.6827849513467</v>
       </c>
       <c r="D40" t="n">
-        <v>495.0957149476001</v>
+        <v>485.566145539011</v>
       </c>
       <c r="E40" t="n">
-        <v>495.0957149476001</v>
+        <v>485.566145539011</v>
       </c>
       <c r="F40" t="n">
-        <v>402.9352599385978</v>
+        <v>485.566145539011</v>
       </c>
       <c r="G40" t="n">
-        <v>235.7210651131766</v>
+        <v>318.3519507135898</v>
       </c>
       <c r="H40" t="n">
-        <v>93.84834815160701</v>
+        <v>176.4792337520202</v>
       </c>
       <c r="I40" t="n">
-        <v>93.84834815160701</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="J40" t="n">
         <v>172.8304710411609</v>
@@ -7363,19 +7363,19 @@
         <v>1958.704181747508</v>
       </c>
       <c r="U40" t="n">
-        <v>1669.627968062235</v>
+        <v>1758.358641850358</v>
       </c>
       <c r="V40" t="n">
-        <v>1414.943479856348</v>
+        <v>1503.674153644471</v>
       </c>
       <c r="W40" t="n">
-        <v>1125.526309819387</v>
+        <v>1214.256983607511</v>
       </c>
       <c r="X40" t="n">
-        <v>897.5367589213699</v>
+        <v>986.2674327094933</v>
       </c>
       <c r="Y40" t="n">
-        <v>676.7441797778398</v>
+        <v>986.2674327094933</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.261193831371</v>
       </c>
       <c r="C41" t="n">
-        <v>1949.298676890958</v>
+        <v>1949.298676890959</v>
       </c>
       <c r="D41" t="n">
         <v>1591.032978284208</v>
@@ -7397,22 +7397,22 @@
         <v>1205.244725685964</v>
       </c>
       <c r="F41" t="n">
-        <v>794.2588208963562</v>
+        <v>794.2588208963565</v>
       </c>
       <c r="G41" t="n">
-        <v>380.2757138127627</v>
+        <v>380.2757138127629</v>
       </c>
       <c r="H41" t="n">
-        <v>93.84834815160684</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I41" t="n">
         <v>93.84834815160703</v>
       </c>
       <c r="J41" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K41" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L41" t="n">
         <v>1513.293909294976</v>
@@ -7442,19 +7442,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U41" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V41" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402499</v>
       </c>
       <c r="W41" t="n">
-        <v>3468.466124132383</v>
+        <v>3468.466124132384</v>
       </c>
       <c r="X41" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895493</v>
       </c>
     </row>
     <row r="42">
@@ -7488,16 +7488,16 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J42" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544605</v>
       </c>
       <c r="K42" t="n">
-        <v>93.84834815160703</v>
+        <v>238.7141959544605</v>
       </c>
       <c r="L42" t="n">
-        <v>107.3505653988748</v>
+        <v>729.4465287982117</v>
       </c>
       <c r="M42" t="n">
-        <v>699.3689196510026</v>
+        <v>1321.464883050339</v>
       </c>
       <c r="N42" t="n">
         <v>1321.464883050339</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>495.0957149476001</v>
+        <v>701.6638349513296</v>
       </c>
       <c r="C43" t="n">
-        <v>495.0957149476001</v>
+        <v>532.7276520234227</v>
       </c>
       <c r="D43" t="n">
-        <v>495.0957149476001</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="E43" t="n">
-        <v>495.0957149476001</v>
+        <v>382.6110126110869</v>
       </c>
       <c r="F43" t="n">
-        <v>485.5661455390109</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="G43" t="n">
-        <v>318.3519507135898</v>
+        <v>235.7210651131766</v>
       </c>
       <c r="H43" t="n">
-        <v>176.4792337520202</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="I43" t="n">
         <v>93.84834815160703</v>
@@ -7609,10 +7609,10 @@
         <v>1125.526309819387</v>
       </c>
       <c r="X43" t="n">
-        <v>897.5367589213699</v>
+        <v>1104.104878925099</v>
       </c>
       <c r="Y43" t="n">
-        <v>676.7441797778398</v>
+        <v>883.3122997815693</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2318.261193831369</v>
+        <v>2318.26119383137</v>
       </c>
       <c r="C44" t="n">
         <v>1949.298676890958</v>
       </c>
       <c r="D44" t="n">
-        <v>1591.032978284207</v>
+        <v>1591.032978284208</v>
       </c>
       <c r="E44" t="n">
-        <v>1205.244725685963</v>
+        <v>1205.244725685964</v>
       </c>
       <c r="F44" t="n">
-        <v>794.2588208963555</v>
+        <v>794.2588208963566</v>
       </c>
       <c r="G44" t="n">
         <v>380.2757138127629</v>
@@ -7646,22 +7646,22 @@
         <v>93.84834815160703</v>
       </c>
       <c r="J44" t="n">
-        <v>424.1437450015196</v>
+        <v>373.3442236507199</v>
       </c>
       <c r="K44" t="n">
-        <v>893.7741287892015</v>
+        <v>842.9746074384018</v>
       </c>
       <c r="L44" t="n">
-        <v>1513.293909294976</v>
+        <v>1462.494387944176</v>
       </c>
       <c r="M44" t="n">
-        <v>2234.298471234014</v>
+        <v>2183.498949883214</v>
       </c>
       <c r="N44" t="n">
-        <v>2971.58344915112</v>
+        <v>2920.78392780032</v>
       </c>
       <c r="O44" t="n">
-        <v>3654.445485610258</v>
+        <v>3603.645964259458</v>
       </c>
       <c r="P44" t="n">
         <v>4202.751434297606</v>
@@ -7679,19 +7679,19 @@
         <v>4405.740996026519</v>
       </c>
       <c r="U44" t="n">
-        <v>4152.297666746068</v>
+        <v>4152.297666746069</v>
       </c>
       <c r="V44" t="n">
-        <v>3821.234779402497</v>
+        <v>3821.234779402498</v>
       </c>
       <c r="W44" t="n">
         <v>3468.466124132383</v>
       </c>
       <c r="X44" t="n">
-        <v>3095.000365871303</v>
+        <v>3095.000365871304</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.861033895491</v>
+        <v>2704.861033895492</v>
       </c>
     </row>
     <row r="45">
@@ -7722,31 +7722,31 @@
         <v>93.84834815160703</v>
       </c>
       <c r="I45" t="n">
-        <v>93.84834815160703</v>
+        <v>94.88738072612961</v>
       </c>
       <c r="J45" t="n">
-        <v>93.84834815160703</v>
+        <v>242.5353624779755</v>
       </c>
       <c r="K45" t="n">
-        <v>302.0892292003568</v>
+        <v>573.0441050413342</v>
       </c>
       <c r="L45" t="n">
-        <v>792.8215620441082</v>
+        <v>960.0078027834585</v>
       </c>
       <c r="M45" t="n">
-        <v>1384.839916296236</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="N45" t="n">
-        <v>2006.935879695572</v>
+        <v>1552.026157035586</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.812354695766</v>
+        <v>2098.90263203578</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.812354695766</v>
+        <v>2518.486150461856</v>
       </c>
       <c r="R45" t="n">
         <v>2553.812354695766</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>495.0957149476001</v>
+        <v>557.5875721598175</v>
       </c>
       <c r="C46" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="D46" t="n">
-        <v>326.1595320196932</v>
+        <v>388.6513892319105</v>
       </c>
       <c r="E46" t="n">
-        <v>326.1595320196932</v>
+        <v>240.7382956495174</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0625429770282</v>
+        <v>93.84834815160703</v>
       </c>
       <c r="G46" t="n">
         <v>93.84834815160703</v>
@@ -7849,7 +7849,7 @@
         <v>897.5367589213699</v>
       </c>
       <c r="Y46" t="n">
-        <v>676.7441797778398</v>
+        <v>739.2360369900572</v>
       </c>
     </row>
   </sheetData>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>169.5797582491671</v>
+        <v>242.0638463692165</v>
       </c>
       <c r="M3" t="n">
         <v>392.8337743093847</v>
@@ -8076,7 +8076,7 @@
         <v>124.5219861368073</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>133.663080786811</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,28 +8292,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>122.1609165114202</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>129.8481964236088</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>127.8064787429921</v>
       </c>
       <c r="M6" t="n">
-        <v>392.8337743093847</v>
+        <v>392.8337743093848</v>
       </c>
       <c r="N6" t="n">
         <v>381.709495280812</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>237.7646974507862</v>
       </c>
       <c r="P6" t="n">
-        <v>134.292646620523</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>133.663080786811</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8538,10 +8538,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>464.4535191168289</v>
+        <v>70.57133424718863</v>
       </c>
       <c r="N9" t="n">
-        <v>57.74759784825785</v>
+        <v>451.6297827178985</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>51.31264782909113</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9182,7 +9182,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -9398,10 +9398,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -9638,13 +9638,13 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>51.3126478290913</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>51.31264782909102</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10109,13 +10109,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>51.31264782908954</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10370,7 +10370,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>51.31264782908954</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10604,7 +10604,7 @@
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>51.31264782909085</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10820,10 +10820,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>51.31264782908954</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>51.31264782909096</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>51.31264782909091</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>51.31264782909045</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>51.31264782909125</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -23267,7 +23267,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>157.8125473841246</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>140.88596752517</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23428,7 +23428,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.89988040911781</v>
       </c>
       <c r="I16" t="n">
-        <v>36.0830073770978</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.338488358459</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23729,7 +23729,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H19" t="n">
-        <v>76.00797063971555</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>56.89988040911777</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24124,13 +24124,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>84.16945386597394</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>8.827219048631804</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I22" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>67.18075159108355</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24367,22 +24367,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>84.16945386597402</v>
+        <v>163.7925202387399</v>
       </c>
       <c r="H25" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I25" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>83.85904013243869</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.4539897919539</v>
       </c>
       <c r="I28" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,13 +24655,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1854515484204</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>210.4824116583075</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>80.97502887069287</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>76.00797063971552</v>
       </c>
       <c r="H31" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>60.1621704186342</v>
+        <v>67.03050859818353</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.4539897919539</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25309,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>84.16945386597398</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>49.75852170696794</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>140.4539897919539</v>
       </c>
       <c r="I37" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25549,16 +25549,16 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>54.18219756401896</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25567,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.80457674440902</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>87.84336705024211</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,25 +25786,25 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>135.986774308428</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>204.5024388036922</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25877,7 +25877,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -26029,19 +26029,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>80.97502887069287</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5420528771669</v>
       </c>
       <c r="H46" t="n">
         <v>140.4539897919539</v>
       </c>
       <c r="I46" t="n">
-        <v>81.80457674440902</v>
+        <v>81.80457674440903</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26089,7 +26089,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>61.86693864009519</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>753302.3151765895</v>
+        <v>753302.3151765896</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>753302.3151765896</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="7">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>753302.3151765894</v>
+        <v>753302.3151765895</v>
       </c>
     </row>
     <row r="15">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>677359.4601380335</v>
+        <v>677359.4601380336</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380337</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.4601380331</v>
       </c>
       <c r="E2" t="n">
-        <v>665513.4561228115</v>
+        <v>665513.4561228117</v>
       </c>
       <c r="F2" t="n">
+        <v>665513.4561228112</v>
+      </c>
+      <c r="G2" t="n">
         <v>665513.4561228114</v>
-      </c>
-      <c r="G2" t="n">
-        <v>665513.4561228115</v>
       </c>
       <c r="H2" t="n">
         <v>665513.4561228115</v>
       </c>
       <c r="I2" t="n">
+        <v>665513.4561228114</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665513.4561228113</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665513.4561228114</v>
+      </c>
+      <c r="L2" t="n">
         <v>665513.4561228115</v>
       </c>
-      <c r="J2" t="n">
-        <v>665513.4561228115</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665513.4561228115</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665513.4561228117</v>
-      </c>
       <c r="M2" t="n">
-        <v>665513.4561228117</v>
+        <v>665513.4561228118</v>
       </c>
       <c r="N2" t="n">
         <v>665513.4561228117</v>
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>143093.1975581083</v>
+        <v>143093.1975581088</v>
       </c>
       <c r="E3" t="n">
         <v>1209019.537077497</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68875.69873124979</v>
+        <v>68875.69873124985</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>34377.37901658361</v>
+        <v>34377.37901658377</v>
       </c>
       <c r="M3" t="n">
-        <v>192891.9217116888</v>
+        <v>192891.9217116887</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>354753.502998367</v>
       </c>
       <c r="C4" t="n">
-        <v>354753.502998367</v>
+        <v>354753.5029983671</v>
       </c>
       <c r="D4" t="n">
-        <v>312563.8135151855</v>
+        <v>312563.8135151854</v>
       </c>
       <c r="E4" t="n">
-        <v>7918.140297431701</v>
+        <v>7918.140297431715</v>
       </c>
       <c r="F4" t="n">
-        <v>7918.140297431756</v>
+        <v>7918.140297431713</v>
       </c>
       <c r="G4" t="n">
-        <v>7918.140297431702</v>
+        <v>7918.140297431757</v>
       </c>
       <c r="H4" t="n">
-        <v>7918.140297431702</v>
+        <v>7918.140297431759</v>
       </c>
       <c r="I4" t="n">
-        <v>7918.140297431719</v>
+        <v>7918.140297431712</v>
       </c>
       <c r="J4" t="n">
-        <v>7918.140297431702</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="K4" t="n">
-        <v>7918.140297431702</v>
+        <v>7918.14029743171</v>
       </c>
       <c r="L4" t="n">
-        <v>7918.140297431683</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="M4" t="n">
-        <v>7918.140297431684</v>
+        <v>7918.140297431708</v>
       </c>
       <c r="N4" t="n">
-        <v>7918.140297431775</v>
+        <v>7918.140297431711</v>
       </c>
       <c r="O4" t="n">
-        <v>7918.140297431702</v>
+        <v>7918.140297431734</v>
       </c>
       <c r="P4" t="n">
-        <v>7918.140297431702</v>
+        <v>7918.140297431718</v>
       </c>
     </row>
     <row r="5">
@@ -26473,7 +26473,7 @@
         <v>50134.40740683334</v>
       </c>
       <c r="D5" t="n">
-        <v>60961.29296005015</v>
+        <v>60961.29296005019</v>
       </c>
       <c r="E5" t="n">
         <v>100930.0394572385</v>
@@ -26488,7 +26488,7 @@
         <v>100930.0394572385</v>
       </c>
       <c r="I5" t="n">
-        <v>100930.0394572386</v>
+        <v>100930.0394572385</v>
       </c>
       <c r="J5" t="n">
         <v>100930.0394572385</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>162077.0948578836</v>
+        <v>162077.0948578837</v>
       </c>
       <c r="C6" t="n">
-        <v>272471.5497328335</v>
+        <v>272471.5497328333</v>
       </c>
       <c r="D6" t="n">
-        <v>160741.1561046893</v>
+        <v>160741.1561046887</v>
       </c>
       <c r="E6" t="n">
-        <v>-652354.2607093562</v>
+        <v>-652390.1576912197</v>
       </c>
       <c r="F6" t="n">
-        <v>556665.2763681412</v>
+        <v>556629.3793862766</v>
       </c>
       <c r="G6" t="n">
-        <v>556665.2763681413</v>
+        <v>556629.3793862768</v>
       </c>
       <c r="H6" t="n">
-        <v>556665.2763681413</v>
+        <v>556629.3793862769</v>
       </c>
       <c r="I6" t="n">
-        <v>556665.2763681413</v>
+        <v>556629.3793862768</v>
       </c>
       <c r="J6" t="n">
-        <v>487789.5776368915</v>
+        <v>487753.6806550269</v>
       </c>
       <c r="K6" t="n">
-        <v>556665.2763681413</v>
+        <v>556629.3793862768</v>
       </c>
       <c r="L6" t="n">
-        <v>522287.8973515579</v>
+        <v>522252.0003696932</v>
       </c>
       <c r="M6" t="n">
-        <v>363773.3546564526</v>
+        <v>363737.4576745885</v>
       </c>
       <c r="N6" t="n">
-        <v>556665.2763681414</v>
+        <v>556629.3793862771</v>
       </c>
       <c r="O6" t="n">
-        <v>556665.2763681413</v>
+        <v>556629.3793862769</v>
       </c>
       <c r="P6" t="n">
-        <v>556665.2763681414</v>
+        <v>556629.3793862771</v>
       </c>
     </row>
   </sheetData>
@@ -26738,10 +26738,10 @@
         <v>23.01338268678938</v>
       </c>
       <c r="C3" t="n">
-        <v>23.01338268678938</v>
+        <v>23.01338268678931</v>
       </c>
       <c r="D3" t="n">
-        <v>140.8305712138794</v>
+        <v>140.8305712138798</v>
       </c>
       <c r="E3" t="n">
         <v>1358.041048716386</v>
@@ -26793,7 +26793,7 @@
         <v>263.2420339516666</v>
       </c>
       <c r="D4" t="n">
-        <v>399.0721465063748</v>
+        <v>399.0721465063752</v>
       </c>
       <c r="E4" t="n">
         <v>1173.104351895088</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>117.8171885270901</v>
+        <v>117.8171885270905</v>
       </c>
       <c r="E3" t="n">
         <v>1217.210477502506</v>
@@ -27015,10 +27015,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>135.8301125547083</v>
+        <v>135.8301125547086</v>
       </c>
       <c r="E4" t="n">
-        <v>774.032205388713</v>
+        <v>774.0322053887126</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.2420339516664</v>
+        <v>263.2420339516666</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.830112554708</v>
+        <v>135.8301125547086</v>
       </c>
       <c r="M4" t="n">
-        <v>774.032205388713</v>
+        <v>774.0322053887126</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>135.8301125547083</v>
+        <v>135.8301125547086</v>
       </c>
       <c r="M4" t="n">
-        <v>774.032205388713</v>
+        <v>774.0322053887126</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,19 +27388,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>282.6159913896387</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>151.9681874521648</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>338.5273214908784</v>
+        <v>75.28528753921177</v>
       </c>
       <c r="I2" t="n">
         <v>206.9091621893709</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.097100052852153</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3382516189322</v>
+        <v>145.0673643595502</v>
       </c>
       <c r="V2" t="n">
         <v>64.51022451846831</v>
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>104.5550860372502</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>84.67755398599033</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>87.69233988828964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,13 +27506,13 @@
         <v>97.08446202703756</v>
       </c>
       <c r="S3" t="n">
-        <v>170.7637213332854</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>199.9652070090748</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27521,7 +27521,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27579,7 +27579,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>82.68702246598919</v>
       </c>
       <c r="R4" t="n">
         <v>175.4274210366964</v>
@@ -27588,10 +27588,10 @@
         <v>223.2933741908973</v>
       </c>
       <c r="T4" t="n">
-        <v>150.6202265600369</v>
+        <v>227.7682732010226</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3167657450791</v>
+        <v>126.4816966381041</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>119.491807711814</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -27628,16 +27628,16 @@
         <v>143.6340117900448</v>
       </c>
       <c r="G5" t="n">
-        <v>394.3529001414266</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>338.5273214908784</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>206.909162189371</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>4.097100052852178</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27661,7 +27661,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>144.0576027644701</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>206.9118586999128</v>
@@ -27670,13 +27670,13 @@
         <v>222.6908602868995</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3382516189322</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>64.51022451846831</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.99893476574641</v>
+        <v>264.7414270483522</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27695,22 +27695,22 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>77.47622953288109</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>111.757373777286</v>
       </c>
       <c r="I6" t="n">
         <v>87.69233988828964</v>
@@ -27740,28 +27740,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>97.08446202703756</v>
+        <v>97.08446202703757</v>
       </c>
       <c r="S6" t="n">
         <v>170.7637213332854</v>
       </c>
       <c r="T6" t="n">
-        <v>199.9652070090748</v>
+        <v>192.6364177595721</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9381254702172</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27795,10 +27795,10 @@
         <v>154.2024705022108</v>
       </c>
       <c r="J7" t="n">
-        <v>90.42516245839144</v>
+        <v>90.42516245839145</v>
       </c>
       <c r="K7" t="n">
-        <v>17.44799951871616</v>
+        <v>17.44799951871617</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27816,10 +27816,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>82.68702246598919</v>
+        <v>82.6870224659892</v>
       </c>
       <c r="R7" t="n">
-        <v>175.4274210366964</v>
+        <v>15.59235192972153</v>
       </c>
       <c r="S7" t="n">
         <v>223.2933741908973</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>126.6879292296161</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27871,7 +27871,7 @@
         <v>333.6766871913686</v>
       </c>
       <c r="I8" t="n">
-        <v>137.4676908772066</v>
+        <v>188.6492741061924</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>114.3055064074256</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>196.1188569569538</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>220.6175145872921</v>
+        <v>133.8724255032208</v>
       </c>
       <c r="U8" t="n">
         <v>251.300360663828</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -27932,25 +27932,25 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>136.6331061807938</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.0405985760713</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>109.3098884080723</v>
       </c>
       <c r="I9" t="n">
-        <v>78.96719903982117</v>
+        <v>78.96719903982114</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>81.35030994411787</v>
+        <v>81.35030994411781</v>
       </c>
       <c r="S9" t="n">
-        <v>166.056591206755</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>198.9437542142032</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9214532265578</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,10 +27995,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>36.04495022533607</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28014,13 +28014,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>123.4633966372552</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.737022590696</v>
@@ -28032,7 +28032,7 @@
         <v>147.8133023112663</v>
       </c>
       <c r="J10" t="n">
-        <v>75.40443663584753</v>
+        <v>75.40443663584747</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>64.89662699839859</v>
+        <v>64.89662699839853</v>
       </c>
       <c r="R10" t="n">
         <v>165.8745716194015</v>
@@ -28062,10 +28062,10 @@
         <v>219.5908241842344</v>
       </c>
       <c r="T10" t="n">
-        <v>226.860501420568</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3051771691584</v>
+        <v>196.1585915392681</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28582,7 +28582,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.04787110526237e-12</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28819,7 +28819,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.04787110526237e-12</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -30277,7 +30277,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>2.017941369558685e-12</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -30511,7 +30511,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>5.400124791776761e-13</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09251611130367583</v>
+        <v>0.09251611130367554</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9474806248887704</v>
+        <v>0.9474806248887675</v>
       </c>
       <c r="I5" t="n">
-        <v>3.566727381034966</v>
+        <v>3.566727381034955</v>
       </c>
       <c r="J5" t="n">
-        <v>7.852189301760364</v>
+        <v>7.852189301760339</v>
       </c>
       <c r="K5" t="n">
-        <v>11.76839629324496</v>
+        <v>11.76839629324493</v>
       </c>
       <c r="L5" t="n">
-        <v>14.59973623455484</v>
+        <v>14.59973623455479</v>
       </c>
       <c r="M5" t="n">
-        <v>16.24501962895158</v>
+        <v>16.24501962895153</v>
       </c>
       <c r="N5" t="n">
-        <v>16.50788103019315</v>
+        <v>16.5078810301931</v>
       </c>
       <c r="O5" t="n">
-        <v>15.58792394841722</v>
+        <v>15.58792394841718</v>
       </c>
       <c r="P5" t="n">
-        <v>13.30393245060773</v>
+        <v>13.30393245060768</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544831</v>
+        <v>9.990699214544799</v>
       </c>
       <c r="R5" t="n">
-        <v>5.811515176679532</v>
+        <v>5.811515176679515</v>
       </c>
       <c r="S5" t="n">
-        <v>2.108210886332515</v>
+        <v>2.108210886332509</v>
       </c>
       <c r="T5" t="n">
-        <v>0.4049892772318412</v>
+        <v>0.4049892772318399</v>
       </c>
       <c r="U5" t="n">
-        <v>0.007401288904294065</v>
+        <v>0.007401288904294042</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04950048351498094</v>
+        <v>0.04950048351498078</v>
       </c>
       <c r="H6" t="n">
-        <v>0.4780704592104738</v>
+        <v>0.4780704592104724</v>
       </c>
       <c r="I6" t="n">
-        <v>1.70429296312544</v>
+        <v>1.704292963125435</v>
       </c>
       <c r="J6" t="n">
-        <v>4.676710155246511</v>
+        <v>4.676710155246496</v>
       </c>
       <c r="K6" t="n">
-        <v>7.993242550750233</v>
+        <v>7.993242550750209</v>
       </c>
       <c r="L6" t="n">
-        <v>10.74790103688215</v>
+        <v>10.74790103688212</v>
       </c>
       <c r="M6" t="n">
-        <v>12.54229356430021</v>
+        <v>12.54229356430017</v>
       </c>
       <c r="N6" t="n">
-        <v>12.87425075418796</v>
+        <v>12.87425075418792</v>
       </c>
       <c r="O6" t="n">
-        <v>11.77742425104022</v>
+        <v>11.77742425104019</v>
       </c>
       <c r="P6" t="n">
-        <v>9.452421277522983</v>
+        <v>9.452421277522953</v>
       </c>
       <c r="Q6" t="n">
-        <v>6.318693299210549</v>
+        <v>6.31869329921053</v>
       </c>
       <c r="R6" t="n">
-        <v>3.073372125605572</v>
+        <v>3.073372125605562</v>
       </c>
       <c r="S6" t="n">
-        <v>0.9194497705523865</v>
+        <v>0.9194497705523836</v>
       </c>
       <c r="T6" t="n">
-        <v>0.1995216857467871</v>
+        <v>0.1995216857467865</v>
       </c>
       <c r="U6" t="n">
-        <v>0.003256610757564536</v>
+        <v>0.003256610757564526</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04149954254994806</v>
+        <v>0.04149954254994793</v>
       </c>
       <c r="H7" t="n">
-        <v>0.3689686601259021</v>
+        <v>0.368968660125901</v>
       </c>
       <c r="I7" t="n">
-        <v>1.248004425047529</v>
+        <v>1.248004425047526</v>
       </c>
       <c r="J7" t="n">
-        <v>2.934017658281328</v>
+        <v>2.934017658281319</v>
       </c>
       <c r="K7" t="n">
-        <v>4.821492307166691</v>
+        <v>4.821492307166677</v>
       </c>
       <c r="L7" t="n">
-        <v>6.16985017147137</v>
+        <v>6.169850171471351</v>
       </c>
       <c r="M7" t="n">
-        <v>6.505241928988675</v>
+        <v>6.505241928988656</v>
       </c>
       <c r="N7" t="n">
-        <v>6.350561815847965</v>
+        <v>6.350561815847946</v>
       </c>
       <c r="O7" t="n">
-        <v>5.865771705150842</v>
+        <v>5.865771705150824</v>
       </c>
       <c r="P7" t="n">
-        <v>5.019181037131898</v>
+        <v>5.019181037131882</v>
       </c>
       <c r="Q7" t="n">
-        <v>3.475020785705196</v>
+        <v>3.475020785705186</v>
       </c>
       <c r="R7" t="n">
-        <v>1.865970340473119</v>
+        <v>1.865970340473113</v>
       </c>
       <c r="S7" t="n">
-        <v>0.7232238460750037</v>
+        <v>0.7232238460750015</v>
       </c>
       <c r="T7" t="n">
-        <v>0.1773162272588689</v>
+        <v>0.1773162272588684</v>
       </c>
       <c r="U7" t="n">
-        <v>0.002263611411815351</v>
+        <v>0.002263611411815344</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.5661530501060476</v>
+        <v>0.566153050106049</v>
       </c>
       <c r="H8" t="n">
-        <v>5.798114924398561</v>
+        <v>5.798114924398576</v>
       </c>
       <c r="I8" t="n">
-        <v>21.82661546421342</v>
+        <v>21.82661546421348</v>
       </c>
       <c r="J8" t="n">
-        <v>48.0515324364382</v>
+        <v>48.05153243643832</v>
       </c>
       <c r="K8" t="n">
-        <v>72.0167910474272</v>
+        <v>72.01679104742739</v>
       </c>
       <c r="L8" t="n">
-        <v>89.34319745461018</v>
+        <v>89.34319745461042</v>
       </c>
       <c r="M8" t="n">
-        <v>99.4115217594336</v>
+        <v>99.41152175943385</v>
       </c>
       <c r="N8" t="n">
-        <v>101.0201041130474</v>
+        <v>101.0201041130477</v>
       </c>
       <c r="O8" t="n">
-        <v>95.39041972105539</v>
+        <v>95.39041972105565</v>
       </c>
       <c r="P8" t="n">
-        <v>81.41351629656234</v>
+        <v>81.41351629656255</v>
       </c>
       <c r="Q8" t="n">
-        <v>61.13816018963949</v>
+        <v>61.13816018963965</v>
       </c>
       <c r="R8" t="n">
-        <v>35.56361153372404</v>
+        <v>35.56361153372413</v>
       </c>
       <c r="S8" t="n">
-        <v>12.90121262929157</v>
+        <v>12.9012126292916</v>
       </c>
       <c r="T8" t="n">
-        <v>2.478334976839224</v>
+        <v>2.478334976839231</v>
       </c>
       <c r="U8" t="n">
-        <v>0.0452922440084838</v>
+        <v>0.04529224400848392</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.3029185871392879</v>
+        <v>0.3029185871392887</v>
       </c>
       <c r="H9" t="n">
-        <v>2.925555828424175</v>
+        <v>2.925555828424183</v>
       </c>
       <c r="I9" t="n">
-        <v>10.4294338115939</v>
+        <v>10.42943381159393</v>
       </c>
       <c r="J9" t="n">
-        <v>28.61916353319035</v>
+        <v>28.61916353319043</v>
       </c>
       <c r="K9" t="n">
-        <v>48.91470887152264</v>
+        <v>48.91470887152277</v>
       </c>
       <c r="L9" t="n">
-        <v>65.77186252776512</v>
+        <v>65.77186252776529</v>
       </c>
       <c r="M9" t="n">
-        <v>76.75266131156428</v>
+        <v>76.75266131156448</v>
       </c>
       <c r="N9" t="n">
-        <v>78.78407587180979</v>
+        <v>78.78407587180999</v>
       </c>
       <c r="O9" t="n">
-        <v>72.07203770414451</v>
+        <v>72.07203770414469</v>
       </c>
       <c r="P9" t="n">
-        <v>57.84416424065928</v>
+        <v>57.84416424065943</v>
       </c>
       <c r="Q9" t="n">
-        <v>38.6672919302712</v>
+        <v>38.6672919302713</v>
       </c>
       <c r="R9" t="n">
-        <v>18.80752420852527</v>
+        <v>18.80752420852532</v>
       </c>
       <c r="S9" t="n">
-        <v>5.626579897082821</v>
+        <v>5.626579897082836</v>
       </c>
       <c r="T9" t="n">
-        <v>1.220974480618445</v>
+        <v>1.220974480618448</v>
       </c>
       <c r="U9" t="n">
-        <v>0.01992885441705842</v>
+        <v>0.01992885441705847</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.2539567677627334</v>
+        <v>0.2539567677627341</v>
       </c>
       <c r="H10" t="n">
-        <v>2.257906535199577</v>
+        <v>2.257906535199583</v>
       </c>
       <c r="I10" t="n">
-        <v>7.637172615992021</v>
+        <v>7.637172615992041</v>
       </c>
       <c r="J10" t="n">
-        <v>17.95474348082525</v>
+        <v>17.9547434808253</v>
       </c>
       <c r="K10" t="n">
-        <v>29.50515901825211</v>
+        <v>29.50515901825219</v>
       </c>
       <c r="L10" t="n">
-        <v>37.75644527265221</v>
+        <v>37.7564452726523</v>
       </c>
       <c r="M10" t="n">
-        <v>39.80887769575283</v>
+        <v>39.80887769575293</v>
       </c>
       <c r="N10" t="n">
-        <v>38.86231156136449</v>
+        <v>38.86231156136459</v>
       </c>
       <c r="O10" t="n">
-        <v>35.895634774318</v>
+        <v>35.8956347743181</v>
       </c>
       <c r="P10" t="n">
-        <v>30.71491671195821</v>
+        <v>30.7149167119583</v>
       </c>
       <c r="Q10" t="n">
-        <v>21.26541625329579</v>
+        <v>21.26541625329585</v>
       </c>
       <c r="R10" t="n">
-        <v>11.41881975776799</v>
+        <v>11.41881975776802</v>
       </c>
       <c r="S10" t="n">
-        <v>4.425773852737816</v>
+        <v>4.425773852737827</v>
       </c>
       <c r="T10" t="n">
-        <v>1.085088007713497</v>
+        <v>1.0850880077135</v>
       </c>
       <c r="U10" t="n">
-        <v>0.01385218733251275</v>
+        <v>0.01385218733251278</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H11" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I11" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J11" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K11" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L11" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M11" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N11" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O11" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P11" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q11" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R11" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S11" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T11" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U11" t="n">
         <v>0.436756920190194</v>
@@ -31832,43 +31832,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H12" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J12" t="n">
-        <v>275.9770021735818</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>471.6886536848224</v>
+        <v>283.1210503161074</v>
       </c>
       <c r="L12" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M12" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N12" t="n">
-        <v>382.7677754386387</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P12" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q12" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S12" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T12" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U12" t="n">
         <v>0.1921756201013754</v>
@@ -31914,7 +31914,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I13" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J13" t="n">
         <v>173.1391022273333</v>
@@ -31923,16 +31923,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L13" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M13" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N13" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O13" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P13" t="n">
         <v>296.1865264282424</v>
@@ -31944,7 +31944,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S13" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T13" t="n">
         <v>10.46359496551969</v>
@@ -31987,46 +31987,46 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H14" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I14" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K14" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L14" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M14" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N14" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O14" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P14" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q14" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R14" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S14" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T14" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U14" t="n">
         <v>0.436756920190194</v>
@@ -32069,43 +32069,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H15" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L15" t="n">
-        <v>634.2436048745725</v>
+        <v>499.0453783605971</v>
       </c>
       <c r="M15" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O15" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P15" t="n">
-        <v>344.3187317059965</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S15" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T15" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U15" t="n">
         <v>0.1921756201013754</v>
@@ -32151,7 +32151,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I16" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J16" t="n">
         <v>173.1391022273333</v>
@@ -32160,16 +32160,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L16" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M16" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N16" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O16" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P16" t="n">
         <v>296.1865264282424</v>
@@ -32181,7 +32181,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S16" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T16" t="n">
         <v>10.46359496551969</v>
@@ -32224,46 +32224,46 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H17" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I17" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K17" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L17" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M17" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N17" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O17" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P17" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q17" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R17" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S17" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T17" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U17" t="n">
         <v>0.436756920190194</v>
@@ -32306,43 +32306,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H18" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L18" t="n">
-        <v>634.2436048745725</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M18" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N18" t="n">
-        <v>759.7214730927639</v>
+        <v>347.0847408589324</v>
       </c>
       <c r="O18" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>344.3187317059965</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S18" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T18" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U18" t="n">
         <v>0.1921756201013754</v>
@@ -32388,7 +32388,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I19" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J19" t="n">
         <v>173.1391022273333</v>
@@ -32397,16 +32397,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L19" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M19" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N19" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O19" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P19" t="n">
         <v>296.1865264282424</v>
@@ -32418,7 +32418,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S19" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T19" t="n">
         <v>10.46359496551969</v>
@@ -32461,46 +32461,46 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H20" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J20" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K20" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L20" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M20" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N20" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O20" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P20" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q20" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R20" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S20" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T20" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U20" t="n">
         <v>0.436756920190194</v>
@@ -32543,7 +32543,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H21" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32552,34 +32552,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L21" t="n">
-        <v>634.2436048745725</v>
+        <v>242.1675041333951</v>
       </c>
       <c r="M21" t="n">
-        <v>258.0817497358003</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N21" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O21" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P21" t="n">
-        <v>557.7961431982454</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R21" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S21" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T21" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U21" t="n">
         <v>0.1921756201013754</v>
@@ -32625,7 +32625,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I22" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J22" t="n">
         <v>173.1391022273333</v>
@@ -32634,16 +32634,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L22" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M22" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N22" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O22" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P22" t="n">
         <v>296.1865264282424</v>
@@ -32655,7 +32655,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S22" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T22" t="n">
         <v>10.46359496551969</v>
@@ -32698,46 +32698,46 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H23" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I23" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J23" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K23" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L23" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M23" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N23" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O23" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P23" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q23" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R23" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S23" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T23" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U23" t="n">
         <v>0.436756920190194</v>
@@ -32780,7 +32780,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H24" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,31 +32792,31 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>634.2436048745725</v>
+        <v>187.8760176396507</v>
       </c>
       <c r="M24" t="n">
-        <v>258.0817497358003</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N24" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O24" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P24" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q24" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R24" t="n">
-        <v>181.3625385436714</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T24" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U24" t="n">
         <v>0.1921756201013754</v>
@@ -32862,7 +32862,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I25" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J25" t="n">
         <v>173.1391022273333</v>
@@ -32871,16 +32871,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L25" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M25" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N25" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O25" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P25" t="n">
         <v>296.1865264282424</v>
@@ -32892,7 +32892,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S25" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T25" t="n">
         <v>10.46359496551969</v>
@@ -32935,46 +32935,46 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H26" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J26" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K26" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L26" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M26" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N26" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O26" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P26" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q26" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R26" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S26" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T26" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U26" t="n">
         <v>0.436756920190194</v>
@@ -33017,43 +33017,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H27" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>242.7853424804494</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>152.1929830599426</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M27" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O27" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P27" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q27" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R27" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S27" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T27" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U27" t="n">
         <v>0.1921756201013754</v>
@@ -33099,7 +33099,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I28" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J28" t="n">
         <v>173.1391022273333</v>
@@ -33108,16 +33108,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L28" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M28" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N28" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O28" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P28" t="n">
         <v>296.1865264282424</v>
@@ -33129,7 +33129,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S28" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T28" t="n">
         <v>10.46359496551969</v>
@@ -33172,46 +33172,46 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H29" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K29" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L29" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M29" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N29" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O29" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P29" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q29" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R29" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S29" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T29" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U29" t="n">
         <v>0.436756920190194</v>
@@ -33254,7 +33254,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H30" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,34 +33263,34 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L30" t="n">
-        <v>420.7661933823238</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M30" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N30" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P30" t="n">
-        <v>557.7961431982454</v>
+        <v>370.2780676825832</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S30" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T30" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U30" t="n">
         <v>0.1921756201013754</v>
@@ -33336,7 +33336,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I31" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J31" t="n">
         <v>173.1391022273333</v>
@@ -33345,16 +33345,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L31" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M31" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N31" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O31" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P31" t="n">
         <v>296.1865264282424</v>
@@ -33366,7 +33366,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S31" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T31" t="n">
         <v>10.46359496551969</v>
@@ -33409,46 +33409,46 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H32" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I32" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K32" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L32" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M32" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N32" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O32" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P32" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q32" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R32" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S32" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T32" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U32" t="n">
         <v>0.436756920190194</v>
@@ -33491,7 +33491,7 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H33" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
@@ -33503,31 +33503,31 @@
         <v>471.6886536848224</v>
       </c>
       <c r="L33" t="n">
-        <v>634.2436048745725</v>
+        <v>416.3441059778917</v>
       </c>
       <c r="M33" t="n">
-        <v>740.1323715504302</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O33" t="n">
-        <v>571.4938338238233</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S33" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T33" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U33" t="n">
         <v>0.1921756201013754</v>
@@ -33573,7 +33573,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I34" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J34" t="n">
         <v>173.1391022273333</v>
@@ -33582,16 +33582,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L34" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M34" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N34" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O34" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P34" t="n">
         <v>296.1865264282424</v>
@@ -33603,7 +33603,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S34" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T34" t="n">
         <v>10.46359496551969</v>
@@ -33646,46 +33646,46 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H35" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I35" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J35" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K35" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L35" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M35" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N35" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O35" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P35" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q35" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R35" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S35" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T35" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U35" t="n">
         <v>0.436756920190194</v>
@@ -33728,43 +33728,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H36" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>140.4762299467351</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M36" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N36" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O36" t="n">
-        <v>694.9967242426205</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q36" t="n">
-        <v>372.8719498286953</v>
+        <v>294.082432305327</v>
       </c>
       <c r="R36" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S36" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T36" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U36" t="n">
         <v>0.1921756201013754</v>
@@ -33810,7 +33810,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I37" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J37" t="n">
         <v>173.1391022273333</v>
@@ -33819,16 +33819,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L37" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M37" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N37" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O37" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P37" t="n">
         <v>296.1865264282424</v>
@@ -33840,7 +33840,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S37" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T37" t="n">
         <v>10.46359496551969</v>
@@ -33883,46 +33883,46 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H38" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I38" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J38" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K38" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L38" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M38" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N38" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O38" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P38" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q38" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R38" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S38" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T38" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U38" t="n">
         <v>0.436756920190194</v>
@@ -33965,13 +33965,13 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H39" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K39" t="n">
         <v>471.6886536848224</v>
@@ -33980,28 +33980,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>419.9237601200352</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N39" t="n">
-        <v>759.7214730927639</v>
+        <v>759.7214730927637</v>
       </c>
       <c r="O39" t="n">
-        <v>694.9967242426205</v>
+        <v>457.4893851949315</v>
       </c>
       <c r="P39" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q39" t="n">
-        <v>372.8719498286953</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S39" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T39" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U39" t="n">
         <v>0.1921756201013754</v>
@@ -34047,7 +34047,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I40" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J40" t="n">
         <v>173.1391022273333</v>
@@ -34056,16 +34056,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L40" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M40" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N40" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O40" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P40" t="n">
         <v>296.1865264282424</v>
@@ -34077,7 +34077,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S40" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T40" t="n">
         <v>10.46359496551969</v>
@@ -34120,46 +34120,46 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H41" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J41" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K41" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L41" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M41" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N41" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O41" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P41" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q41" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R41" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S41" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T41" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U41" t="n">
         <v>0.436756920190194</v>
@@ -34202,43 +34202,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H42" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>273.1667658614682</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>152.1929830599426</v>
+        <v>634.2436048745724</v>
       </c>
       <c r="M42" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N42" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P42" t="n">
-        <v>557.7961431982454</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q42" t="n">
-        <v>372.8719498286953</v>
+        <v>372.8719498286952</v>
       </c>
       <c r="R42" t="n">
-        <v>181.3625385436714</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S42" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T42" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U42" t="n">
         <v>0.1921756201013754</v>
@@ -34284,7 +34284,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I43" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J43" t="n">
         <v>173.1391022273333</v>
@@ -34293,16 +34293,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L43" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M43" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N43" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O43" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P43" t="n">
         <v>296.1865264282424</v>
@@ -34314,7 +34314,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S43" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T43" t="n">
         <v>10.46359496551969</v>
@@ -34357,46 +34357,46 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.459461502377426</v>
+        <v>5.459461502377425</v>
       </c>
       <c r="H44" t="n">
-        <v>55.91171011122283</v>
+        <v>55.91171011122282</v>
       </c>
       <c r="I44" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>463.3649706874065</v>
+        <v>463.3649706874064</v>
       </c>
       <c r="K44" t="n">
-        <v>694.4639760830431</v>
+        <v>694.463976083043</v>
       </c>
       <c r="L44" t="n">
-        <v>861.5439710364265</v>
+        <v>861.5439710364263</v>
       </c>
       <c r="M44" t="n">
-        <v>958.633669529331</v>
+        <v>958.6336695293307</v>
       </c>
       <c r="N44" t="n">
-        <v>974.1453645229609</v>
+        <v>974.1453645229608</v>
       </c>
       <c r="O44" t="n">
-        <v>919.8578442086953</v>
+        <v>919.8578442086952</v>
       </c>
       <c r="P44" t="n">
-        <v>785.0773883687525</v>
+        <v>785.0773883687524</v>
       </c>
       <c r="Q44" t="n">
-        <v>589.5604233148607</v>
+        <v>589.5604233148606</v>
       </c>
       <c r="R44" t="n">
-        <v>342.9428985987163</v>
+        <v>342.9428985987162</v>
       </c>
       <c r="S44" t="n">
         <v>124.4074789854257</v>
       </c>
       <c r="T44" t="n">
-        <v>23.8987927266572</v>
+        <v>23.89879272665719</v>
       </c>
       <c r="U44" t="n">
         <v>0.436756920190194</v>
@@ -34439,43 +34439,43 @@
         <v>2.921069425540905</v>
       </c>
       <c r="H45" t="n">
-        <v>28.21138103088191</v>
+        <v>28.2113810308819</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>100.5719078530531</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>275.9770021735818</v>
       </c>
       <c r="K45" t="n">
-        <v>348.1857632660254</v>
+        <v>471.6886536848224</v>
       </c>
       <c r="L45" t="n">
-        <v>634.2436048745725</v>
+        <v>529.4268017416159</v>
       </c>
       <c r="M45" t="n">
-        <v>740.1323715504302</v>
+        <v>740.1323715504301</v>
       </c>
       <c r="N45" t="n">
-        <v>759.7214730927639</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>694.9967242426205</v>
+        <v>694.9967242426204</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>557.7961431982453</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>181.3625385436713</v>
       </c>
       <c r="S45" t="n">
-        <v>54.25758340862161</v>
+        <v>54.2575834086216</v>
       </c>
       <c r="T45" t="n">
-        <v>11.77395965821093</v>
+        <v>11.77395965821092</v>
       </c>
       <c r="U45" t="n">
         <v>0.1921756201013754</v>
@@ -34521,7 +34521,7 @@
         <v>21.77318271548567</v>
       </c>
       <c r="I46" t="n">
-        <v>73.64589818284927</v>
+        <v>73.64589818284925</v>
       </c>
       <c r="J46" t="n">
         <v>173.1391022273333</v>
@@ -34530,16 +34530,16 @@
         <v>284.5207311900886</v>
       </c>
       <c r="L46" t="n">
-        <v>364.0885788640619</v>
+        <v>364.0885788640618</v>
       </c>
       <c r="M46" t="n">
-        <v>383.8803574265022</v>
+        <v>383.8803574265021</v>
       </c>
       <c r="N46" t="n">
-        <v>374.7525405416875</v>
+        <v>374.7525405416874</v>
       </c>
       <c r="O46" t="n">
-        <v>346.1446266465963</v>
+        <v>346.1446266465962</v>
       </c>
       <c r="P46" t="n">
         <v>296.1865264282424</v>
@@ -34551,7 +34551,7 @@
         <v>110.1126397860859</v>
       </c>
       <c r="S46" t="n">
-        <v>42.67810967851329</v>
+        <v>42.67810967851328</v>
       </c>
       <c r="T46" t="n">
         <v>10.46359496551969</v>
@@ -34775,13 +34775,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>3.930118828988654</v>
       </c>
       <c r="K3" t="n">
         <v>134.6170405889698</v>
       </c>
       <c r="L3" t="n">
-        <v>41.77327950617506</v>
+        <v>114.2573676262245</v>
       </c>
       <c r="M3" t="n">
         <v>263.2420339516666</v>
@@ -34796,7 +34796,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>76.41420694903813</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34936,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>115.8239578194292</v>
+        <v>115.8239578194291</v>
       </c>
       <c r="L5" t="n">
         <v>196.494535815018</v>
@@ -34945,10 +34945,10 @@
         <v>235.4123198945113</v>
       </c>
       <c r="N5" t="n">
-        <v>224.4417418455864</v>
+        <v>224.4417418455863</v>
       </c>
       <c r="O5" t="n">
-        <v>166.2898937894759</v>
+        <v>166.2898937894758</v>
       </c>
       <c r="P5" t="n">
         <v>103.8696448668208</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>3.93011882898864</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>134.6170405889698</v>
       </c>
       <c r="L6" t="n">
-        <v>243.0338665604671</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>263.2420339516666</v>
@@ -35027,13 +35027,13 @@
         <v>263.2420339516666</v>
       </c>
       <c r="O6" t="n">
-        <v>263.0434990833253</v>
+        <v>106.945877257382</v>
       </c>
       <c r="P6" t="n">
-        <v>9.770660483715774</v>
+        <v>193.9407825031299</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>76.41420694903812</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35097,19 +35097,19 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>33.75987543178751</v>
+        <v>33.75987543178749</v>
       </c>
       <c r="M7" t="n">
-        <v>46.08911889082926</v>
+        <v>46.08911889082924</v>
       </c>
       <c r="N7" t="n">
-        <v>50.48273419507656</v>
+        <v>50.48273419507654</v>
       </c>
       <c r="O7" t="n">
-        <v>30.45089961919052</v>
+        <v>30.4508996191905</v>
       </c>
       <c r="P7" t="n">
-        <v>2.297740302025386</v>
+        <v>2.29774030202537</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>36.10224308182568</v>
+        <v>36.1022430818258</v>
       </c>
       <c r="K8" t="n">
-        <v>176.0723525736114</v>
+        <v>176.0723525736116</v>
       </c>
       <c r="L8" t="n">
-        <v>271.2379970350734</v>
+        <v>271.2379970350736</v>
       </c>
       <c r="M8" t="n">
-        <v>318.5788220249934</v>
+        <v>318.5788220249936</v>
       </c>
       <c r="N8" t="n">
-        <v>308.9539649284407</v>
+        <v>308.9539649284409</v>
       </c>
       <c r="O8" t="n">
-        <v>246.092389562114</v>
+        <v>246.0923895621143</v>
       </c>
       <c r="P8" t="n">
-        <v>171.9792287127754</v>
+        <v>171.9792287127756</v>
       </c>
       <c r="Q8" t="n">
-        <v>51.14746097509468</v>
+        <v>51.14746097509484</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>27.8725722069325</v>
+        <v>27.87257220693257</v>
       </c>
       <c r="K9" t="n">
-        <v>175.5385069097422</v>
+        <v>175.5385069097424</v>
       </c>
       <c r="L9" t="n">
-        <v>298.0578280513501</v>
+        <v>298.0578280513503</v>
       </c>
       <c r="M9" t="n">
-        <v>399.0721465063748</v>
+        <v>5.18996163673479</v>
       </c>
       <c r="N9" t="n">
-        <v>5.189961636734331</v>
+        <v>399.0721465063752</v>
       </c>
       <c r="O9" t="n">
-        <v>323.3381125364296</v>
+        <v>323.3381125364298</v>
       </c>
       <c r="P9" t="n">
-        <v>242.3325254662662</v>
+        <v>242.3325254662664</v>
       </c>
       <c r="Q9" t="n">
-        <v>108.7628055800988</v>
+        <v>108.7628055800989</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,22 +35331,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>7.235667192369256</v>
+        <v>7.235667192369334</v>
       </c>
       <c r="L10" t="n">
-        <v>65.34647053296834</v>
+        <v>65.34647053296844</v>
       </c>
       <c r="M10" t="n">
-        <v>79.39275465759341</v>
+        <v>79.39275465759351</v>
       </c>
       <c r="N10" t="n">
-        <v>82.99448394059308</v>
+        <v>82.99448394059318</v>
       </c>
       <c r="O10" t="n">
-        <v>60.48076268835768</v>
+        <v>60.48076268835777</v>
       </c>
       <c r="P10" t="n">
-        <v>27.9934759768517</v>
+        <v>27.99347597685178</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K11" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L11" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M11" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N11" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O11" t="n">
-        <v>689.7596327870085</v>
+        <v>741.0722806160995</v>
       </c>
       <c r="P11" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q11" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R11" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J12" t="n">
-        <v>149.1393755069151</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>333.8472147104634</v>
+        <v>145.2796113417484</v>
       </c>
       <c r="L12" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M12" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N12" t="n">
-        <v>251.4260633553054</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P12" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q12" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K13" t="n">
         <v>262.2512393642057</v>
@@ -35574,19 +35574,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M13" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N13" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O13" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P13" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q13" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K14" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L14" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M14" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N14" t="n">
-        <v>744.73230092637</v>
+        <v>796.0449487554608</v>
       </c>
       <c r="O14" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P14" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q14" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R14" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L15" t="n">
-        <v>495.6892250946983</v>
+        <v>360.4909985807229</v>
       </c>
       <c r="M15" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O15" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P15" t="n">
-        <v>210.3443242916662</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K16" t="n">
         <v>262.2512393642057</v>
@@ -35811,19 +35811,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M16" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N16" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O16" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P16" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q16" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1.04787110526237e-12</v>
       </c>
       <c r="J17" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K17" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M17" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N17" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O17" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P17" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q17" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R17" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L18" t="n">
-        <v>495.6892250946983</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M18" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N18" t="n">
-        <v>628.3797610094306</v>
+        <v>215.7430287755991</v>
       </c>
       <c r="O18" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>210.3443242916662</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K19" t="n">
         <v>262.2512393642057</v>
@@ -36048,19 +36048,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M19" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N19" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O19" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P19" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q19" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1.04787110526237e-12</v>
       </c>
       <c r="J20" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K20" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L20" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M20" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N20" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O20" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P20" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q20" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R20" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36200,28 +36200,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L21" t="n">
-        <v>495.6892250946983</v>
+        <v>103.6131243535209</v>
       </c>
       <c r="M21" t="n">
-        <v>115.947715813782</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N21" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O21" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P21" t="n">
-        <v>423.8217357839152</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R21" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K22" t="n">
         <v>262.2512393642057</v>
@@ -36285,19 +36285,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M22" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N22" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O22" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P22" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q22" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>282.3190661607202</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K23" t="n">
-        <v>525.6867728671539</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L23" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M23" t="n">
-        <v>728.2874363020583</v>
+        <v>779.6000841311491</v>
       </c>
       <c r="N23" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O23" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P23" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q23" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R23" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>495.6892250946983</v>
+        <v>49.32163785977649</v>
       </c>
       <c r="M24" t="n">
-        <v>115.947715813782</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N24" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O24" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P24" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q24" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R24" t="n">
-        <v>35.68303457970742</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K25" t="n">
         <v>262.2512393642057</v>
@@ -36522,19 +36522,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M25" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N25" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O25" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P25" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q25" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K26" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L26" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M26" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N26" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O26" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P26" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q26" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R26" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>115.9477158137827</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>13.63860328006844</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M27" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O27" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P27" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q27" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R27" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K28" t="n">
         <v>262.2512393642057</v>
@@ -36759,19 +36759,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M28" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N28" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O28" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P28" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q28" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K29" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7775560664393</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M29" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N29" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O29" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P29" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q29" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R29" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,28 +36911,28 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L30" t="n">
-        <v>282.2118136024496</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M30" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N30" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P30" t="n">
-        <v>423.8217357839152</v>
+        <v>236.303660268253</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K31" t="n">
         <v>262.2512393642057</v>
@@ -36996,19 +36996,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M31" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N31" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O31" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P31" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q31" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>333.6317139898098</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K32" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L32" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M32" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N32" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O32" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P32" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q32" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R32" t="n">
-        <v>127.3573607845842</v>
+        <v>178.670008613675</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>333.8472147104634</v>
       </c>
       <c r="L33" t="n">
-        <v>495.6892250946983</v>
+        <v>277.7897261980175</v>
       </c>
       <c r="M33" t="n">
-        <v>597.9983376284119</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O33" t="n">
-        <v>428.8975893793788</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K34" t="n">
         <v>262.2512393642057</v>
@@ -37233,19 +37233,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M34" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N34" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O34" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P34" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q34" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>333.6317139898098</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K35" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M35" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N35" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O35" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P35" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q35" t="n">
-        <v>367.2547334404112</v>
+        <v>418.5673812695019</v>
       </c>
       <c r="R35" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37382,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>13.63860328006845</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M36" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N36" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O36" t="n">
-        <v>552.4004797981761</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q36" t="n">
-        <v>232.8901757426738</v>
+        <v>154.1006582193055</v>
       </c>
       <c r="R36" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K37" t="n">
         <v>262.2512393642057</v>
@@ -37470,19 +37470,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M37" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N37" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O37" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P37" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q37" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>333.6317139898098</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K38" t="n">
-        <v>474.3741250380626</v>
+        <v>525.6867728671534</v>
       </c>
       <c r="L38" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M38" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N38" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O38" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P38" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q38" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R38" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,10 +37616,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K39" t="n">
         <v>333.8472147104634</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>277.7897261980169</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N39" t="n">
-        <v>628.3797610094306</v>
+        <v>628.3797610094305</v>
       </c>
       <c r="O39" t="n">
-        <v>552.4004797981761</v>
+        <v>314.8931407504871</v>
       </c>
       <c r="P39" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q39" t="n">
-        <v>232.8901757426738</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K40" t="n">
         <v>262.2512393642057</v>
@@ -37707,19 +37707,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M40" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N40" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O40" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P40" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q40" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K41" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L41" t="n">
-        <v>625.7775560664393</v>
+        <v>677.09020389553</v>
       </c>
       <c r="M41" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N41" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O41" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P41" t="n">
-        <v>553.844392613483</v>
+        <v>553.8443926134828</v>
       </c>
       <c r="Q41" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R41" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37856,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>146.3291391948015</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>13.63860328006844</v>
+        <v>495.6892250946982</v>
       </c>
       <c r="M42" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N42" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P42" t="n">
-        <v>423.8217357839152</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q42" t="n">
-        <v>232.8901757426738</v>
+        <v>232.8901757426737</v>
       </c>
       <c r="R42" t="n">
-        <v>35.68303457970742</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K43" t="n">
         <v>262.2512393642057</v>
@@ -37944,19 +37944,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M43" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N43" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O43" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P43" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q43" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>333.6317139898107</v>
+        <v>282.3190661607201</v>
       </c>
       <c r="K44" t="n">
-        <v>474.3741250380626</v>
+        <v>474.3741250380625</v>
       </c>
       <c r="L44" t="n">
-        <v>625.7775560664393</v>
+        <v>625.777556066439</v>
       </c>
       <c r="M44" t="n">
-        <v>728.2874363020583</v>
+        <v>728.287436302058</v>
       </c>
       <c r="N44" t="n">
-        <v>744.73230092637</v>
+        <v>744.7323009263698</v>
       </c>
       <c r="O44" t="n">
-        <v>689.7596327870085</v>
+        <v>689.7596327870084</v>
       </c>
       <c r="P44" t="n">
-        <v>553.844392613483</v>
+        <v>605.157040442574</v>
       </c>
       <c r="Q44" t="n">
-        <v>367.2547334404112</v>
+        <v>367.2547334404111</v>
       </c>
       <c r="R44" t="n">
-        <v>127.3573607845842</v>
+        <v>127.3573607845841</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.049527853053107</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>149.1393755069151</v>
       </c>
       <c r="K45" t="n">
-        <v>210.3443242916665</v>
+        <v>333.8472147104634</v>
       </c>
       <c r="L45" t="n">
-        <v>495.6892250946983</v>
+        <v>390.8724219617417</v>
       </c>
       <c r="M45" t="n">
-        <v>597.9983376284119</v>
+        <v>597.9983376284117</v>
       </c>
       <c r="N45" t="n">
-        <v>628.3797610094306</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>552.4004797981761</v>
+        <v>552.400479798176</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>423.8217357839151</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.6830345797074</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>79.77992211066052</v>
+        <v>79.77992211066049</v>
       </c>
       <c r="K46" t="n">
         <v>262.2512393642057</v>
@@ -38181,19 +38181,19 @@
         <v>391.678604124378</v>
       </c>
       <c r="M46" t="n">
-        <v>423.4642343883428</v>
+        <v>423.4642343883427</v>
       </c>
       <c r="N46" t="n">
         <v>418.8847129209161</v>
       </c>
       <c r="O46" t="n">
-        <v>370.729754560636</v>
+        <v>370.7297545606359</v>
       </c>
       <c r="P46" t="n">
-        <v>293.4650856931359</v>
+        <v>293.4650856931358</v>
       </c>
       <c r="Q46" t="n">
-        <v>118.9021551044799</v>
+        <v>118.9021551044798</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
